--- a/mfa/S_cerevisiae/run_files/Nlim__D_0_28/data_expmt2.xlsx
+++ b/mfa/S_cerevisiae/run_files/Nlim__D_0_28/data_expmt2.xlsx
@@ -771,17 +771,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -803,7 +799,7 @@
   </sheetPr>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E32"/>
     </sheetView>
   </sheetViews>
@@ -957,7 +953,7 @@
       <c r="C6" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E6" s="0" t="s">
@@ -1667,7 +1663,7 @@
   </sheetPr>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="E2:E32 A3"/>
     </sheetView>
   </sheetViews>
@@ -2046,7 +2042,7 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E2:E32 A1"/>
     </sheetView>
   </sheetViews>
